--- a/PPG/Podcasts.xlsx
+++ b/PPG/Podcasts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E78DA5-8CFF-E149-A74E-BAE071E09DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0E4B86-4873-5E4E-A604-E1640F8E4BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Pesquisa da UFSCar oferece tratamento para idosos de todo o Brasil com dor lombar</t>
   </si>
   <si>
-    <t>src=https://open.spotify.com/embed/episode/2IsWuEZ2lRgx6L4P1EsGbB?utm_source=generator</t>
-  </si>
-  <si>
     <t>Fisiounisuam Podcast - A importância do mestrado e do doutorado na carreira profissional</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>https://anchor.fm/fisiounisuam-podcast/embed/episodes/Fisiounisuam-Podcast---COVID-19---Fatos-e-Fakes-ec0tkc/a-a1pkpui</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/2IsWuEZ2lRgx6L4P1EsGbB?utm_source=generator</t>
   </si>
 </sst>
 </file>
@@ -474,10 +474,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{07739A37-2A89-8A44-AE06-2C19122A1F2A}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -509,24 +512,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Podcasts.xlsx
+++ b/PPG/Podcasts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0E4B86-4873-5E4E-A604-E1640F8E4BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F347E3E-1EED-2242-907A-81D363D95A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="16" r:id="rId1"/>
-    <sheet name="2020" sheetId="2" r:id="rId2"/>
+    <sheet name="2021" sheetId="17" r:id="rId2"/>
+    <sheet name="2020" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Publicação</t>
   </si>
@@ -71,6 +72,30 @@
   </si>
   <si>
     <t>https://open.spotify.com/embed/episode/2IsWuEZ2lRgx6L4P1EsGbB?utm_source=generator</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/1vwlXrf3HRYDS1jxK4V7rQ?utm_source=generator</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>FISIOCAST 2023 - EP 04: Terapia Cognitivo Funcional (com Dra Jessica Fernandez)</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/5BjsSfWLI9MOiKesUxNUYx?utm_source=generator</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>#ProUp FISIOCAST - EP04: Dor, postura e formação acadêmica parte 2 (com Fabiana Terra)</t>
+  </si>
+  <si>
+    <t>#ProUp FISIOCAST - EP03: Dor, postura e formação acadêmica parte 1 (com Fabiana Terra)</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/6eSUI0s2mQDdfnhUz2qp4D?utm_source=generator</t>
   </si>
 </sst>
 </file>
@@ -123,11 +148,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -443,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,24 +494,92 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{07739A37-2A89-8A44-AE06-2C19122A1F2A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{07739A37-2A89-8A44-AE06-2C19122A1F2A}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{945E566F-4528-4B49-9B25-8450C486A89E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CFA876-26AD-9547-87DF-A5E3B0458837}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{16CF0BA8-5B1E-EF4B-A769-AFDB2EDEE244}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{39419933-FDD9-1D4F-83F1-59996CF27744}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE037EEE-6808-0D49-851E-79F849A82658}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/PPG/Podcasts.xlsx
+++ b/PPG/Podcasts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F347E3E-1EED-2242-907A-81D363D95A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E6750-D5F7-CB41-89F4-719D48C7F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -71,21 +71,12 @@
     <t>https://anchor.fm/fisiounisuam-podcast/embed/episodes/Fisiounisuam-Podcast---COVID-19---Fatos-e-Fakes-ec0tkc/a-a1pkpui</t>
   </si>
   <si>
-    <t>https://open.spotify.com/embed/episode/2IsWuEZ2lRgx6L4P1EsGbB?utm_source=generator</t>
-  </si>
-  <si>
-    <t>https://open.spotify.com/embed/episode/1vwlXrf3HRYDS1jxK4V7rQ?utm_source=generator</t>
-  </si>
-  <si>
     <t>02/10/2023</t>
   </si>
   <si>
     <t>FISIOCAST 2023 - EP 04: Terapia Cognitivo Funcional (com Dra Jessica Fernandez)</t>
   </si>
   <si>
-    <t>https://open.spotify.com/embed/episode/5BjsSfWLI9MOiKesUxNUYx?utm_source=generator</t>
-  </si>
-  <si>
     <t>01/07/2021</t>
   </si>
   <si>
@@ -95,7 +86,16 @@
     <t>#ProUp FISIOCAST - EP03: Dor, postura e formação acadêmica parte 1 (com Fabiana Terra)</t>
   </si>
   <si>
-    <t>https://open.spotify.com/embed/episode/6eSUI0s2mQDdfnhUz2qp4D?utm_source=generator</t>
+    <t>https://open.spotify.com/embed/episode/1vwlXrf3HRYDS1jxK4V7rQ</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/2IsWuEZ2lRgx6L4P1EsGbB</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/5BjsSfWLI9MOiKesUxNUYx</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/6eSUI0s2mQDdfnhUz2qp4D</t>
   </si>
 </sst>
 </file>
@@ -494,13 +494,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -550,21 +550,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>

--- a/PPG/Podcasts.xlsx
+++ b/PPG/Podcasts.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E6750-D5F7-CB41-89F4-719D48C7F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315537D-12E5-664A-B982-AEFBA413F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="16" r:id="rId1"/>
-    <sheet name="2021" sheetId="17" r:id="rId2"/>
-    <sheet name="2020" sheetId="2" r:id="rId3"/>
+    <sheet name="2024" sheetId="18" r:id="rId1"/>
+    <sheet name="2023" sheetId="16" r:id="rId2"/>
+    <sheet name="2021" sheetId="17" r:id="rId3"/>
+    <sheet name="2020" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Publicação</t>
   </si>
@@ -96,6 +97,15 @@
   </si>
   <si>
     <t>https://open.spotify.com/embed/episode/6eSUI0s2mQDdfnhUz2qp4D</t>
+  </si>
+  <si>
+    <t>16/03/1978</t>
+  </si>
+  <si>
+    <t>Formação profissional - T3E06: Movimento e Dor: Um olhar biopsicossocial. - Parte 1</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/2pZfKNclRmYS2pVx3hODue</t>
   </si>
 </sst>
 </file>
@@ -173,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,7 +223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -319,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,15 +471,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1009978F-4F1E-4549-BDF1-1ABFE199448F}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,6 +504,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5B652427-6967-E04A-9195-90B4EC9F0AC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -523,7 +577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CFA876-26AD-9547-87DF-A5E3B0458837}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -579,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE037EEE-6808-0D49-851E-79F849A82658}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/PPG/Podcasts.xlsx
+++ b/PPG/Podcasts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315537D-12E5-664A-B982-AEFBA413F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C71D900-45D5-024A-8A63-746271A85149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="18" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Publicação</t>
   </si>
@@ -99,13 +99,22 @@
     <t>https://open.spotify.com/embed/episode/6eSUI0s2mQDdfnhUz2qp4D</t>
   </si>
   <si>
-    <t>16/03/1978</t>
-  </si>
-  <si>
     <t>Formação profissional - T3E06: Movimento e Dor: Um olhar biopsicossocial. - Parte 1</t>
   </si>
   <si>
     <t>https://open.spotify.com/embed/episode/2pZfKNclRmYS2pVx3hODue</t>
+  </si>
+  <si>
+    <t>16/03/2024</t>
+  </si>
+  <si>
+    <t>https://aaomptpodcast.simplecast.com/episodes/ep-137-cognitive-functional-therapy-meziat-filho</t>
+  </si>
+  <si>
+    <t>Ep. 137 Cognitive Functional Therapy (Meziat-Filho)</t>
+  </si>
+  <si>
+    <t>02/05/2024</t>
   </si>
 </sst>
 </file>
@@ -183,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -329,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1009978F-4F1E-4549-BDF1-1ABFE199448F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,18 +513,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5B652427-6967-E04A-9195-90B4EC9F0AC5}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{9A8497E1-9B51-3340-8995-98CB89F95B83}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{ADB93962-A656-A045-A5BF-EC3E4A66DB00}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Podcasts.xlsx
+++ b/PPG/Podcasts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C71D900-45D5-024A-8A63-746271A85149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28E6F10-82F1-8749-B129-9C01372A6C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Publicação</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>02/05/2024</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/6rzOUAQpz39ZzxG47n0dGZ</t>
+  </si>
+  <si>
+    <t>01/03/2023</t>
+  </si>
+  <si>
+    <t>Abordagem multidimensional da dor crônica, com Ney Meziat. #EP10</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>Abordagem biopsicossocial, por onde começar? Com Jéssica Fernandez. #EP08</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/embed/episode/3pdwSh6TgJ3KeD57OFYHa0</t>
   </si>
 </sst>
 </file>
@@ -192,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,7 +562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +607,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{07739A37-2A89-8A44-AE06-2C19122A1F2A}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{945E566F-4528-4B49-9B25-8450C486A89E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{222EDAAE-6FCF-4B4F-9B16-0D2C60D7282A}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{4F3AA592-715F-2643-81F0-2F91146789C5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
